--- a/Projects from Mars Electric/Inventory Optimization Project - VMI Specialist.xlsx
+++ b/Projects from Mars Electric/Inventory Optimization Project - VMI Specialist.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\c2c94\OneDrive\Desktop\Careers\Waddle Portfolio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\c2c94\OneDrive\Desktop\Careers\Waddle Portfolio\data-portfolio\Projects from Mars Electric\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{798998B6-E5CA-4577-9B22-DE936897882D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C1B3D4C-5F09-4447-B84E-291D806E8691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="4200" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Optimized Data" sheetId="4" r:id="rId1"/>
@@ -217,9 +217,6 @@
     <t>Fittings</t>
   </si>
   <si>
-    <t>Straps</t>
-  </si>
-  <si>
     <t>CABLE</t>
   </si>
   <si>
@@ -341,6 +338,9 @@
   </si>
   <si>
     <t>Total Quantity - Annual</t>
+  </si>
+  <si>
+    <t>Straps/Bushings</t>
   </si>
 </sst>
 </file>
@@ -562,12 +562,12 @@
     <xf numFmtId="1" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="4" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="4" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
@@ -662,16 +662,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>984250</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>92074</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>12699</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1441450</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -686,8 +686,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4140200" y="7775574"/>
-          <a:ext cx="5010150" cy="2835276"/>
+          <a:off x="14192250" y="4718049"/>
+          <a:ext cx="5010150" cy="2892426"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1165,8 +1165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F24B7BB-3E39-4FE8-B616-C239858AE6AC}">
   <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1199,25 +1199,25 @@
         <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>39</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" s="11" t="s">
         <v>95</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>96</v>
       </c>
       <c r="J1" s="12" t="s">
         <v>51</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M1" t="s">
         <v>46</v>
@@ -1234,7 +1234,15 @@
         <v>50</v>
       </c>
       <c r="B2" s="4" t="str">
-        <f t="shared" ref="B2:B33" si="0">TRIM(RIGHT(SUBSTITUTE(D2, " ", REPT(" ", LEN(D2))), LEN(D2)))</f>
+        <f>_xlfn.LET(
+  _xlpm.txt, D2,
+  _xlpm.last, TRIM(RIGHT(SUBSTITUTE(_xlpm.txt," ",REPT(" ",LEN(_xlpm.txt))),LEN(_xlpm.txt))),
+  IF(ISNUMBER(SEARCH("INSBSH",_xlpm.txt)),"INSBSH",
+     IF(_xlpm.last="INS","INSBSH",
+        IF(_xlpm.last="120V","CABLE",_xlpm.last)
+     )
+  )
+)</f>
         <v>TAPE</v>
       </c>
       <c r="C2" s="4" t="str">
@@ -1284,8 +1292,16 @@
       <c r="A3" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="7" t="str">
-        <f t="shared" si="0"/>
+      <c r="B3" s="4" t="str">
+        <f t="shared" ref="B3:B40" si="0">_xlfn.LET(
+  _xlpm.txt, D3,
+  _xlpm.last, TRIM(RIGHT(SUBSTITUTE(_xlpm.txt," ",REPT(" ",LEN(_xlpm.txt))),LEN(_xlpm.txt))),
+  IF(ISNUMBER(SEARCH("INSBSH",_xlpm.txt)),"INSBSH",
+     IF(_xlpm.last="INS","INSBSH",
+        IF(_xlpm.last="120V","CABLE",_xlpm.last)
+     )
+  )
+)</f>
         <v>TAPE</v>
       </c>
       <c r="C3" s="7" t="str">
@@ -1386,7 +1402,7 @@
       <c r="A5" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="7" t="str">
+      <c r="B5" s="4" t="str">
         <f t="shared" si="0"/>
         <v>TAPE</v>
       </c>
@@ -1475,10 +1491,10 @@
         <v>4</v>
       </c>
       <c r="M6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N6" t="s">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="O6">
         <v>75</v>
@@ -1488,7 +1504,7 @@
       <c r="A7" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="7" t="str">
+      <c r="B7" s="4" t="str">
         <f t="shared" si="0"/>
         <v>STACKER</v>
       </c>
@@ -1526,10 +1542,10 @@
         <v>2</v>
       </c>
       <c r="M7" t="s">
+        <v>56</v>
+      </c>
+      <c r="N7" t="s">
         <v>57</v>
-      </c>
-      <c r="N7" t="s">
-        <v>58</v>
       </c>
       <c r="O7">
         <v>250</v>
@@ -1577,10 +1593,10 @@
         <v>3</v>
       </c>
       <c r="M8" t="s">
+        <v>58</v>
+      </c>
+      <c r="N8" t="s">
         <v>59</v>
-      </c>
-      <c r="N8" t="s">
-        <v>60</v>
       </c>
       <c r="O8">
         <v>100</v>
@@ -1590,7 +1606,7 @@
       <c r="A9" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="7" t="str">
+      <c r="B9" s="4" t="str">
         <f t="shared" si="0"/>
         <v>CONN</v>
       </c>
@@ -1628,7 +1644,7 @@
         <v>2</v>
       </c>
       <c r="M9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N9" t="s">
         <v>55</v>
@@ -1679,10 +1695,10 @@
         <v>2</v>
       </c>
       <c r="M10" t="s">
+        <v>60</v>
+      </c>
+      <c r="N10" t="s">
         <v>61</v>
-      </c>
-      <c r="N10" t="s">
-        <v>62</v>
       </c>
       <c r="O10">
         <v>25</v>
@@ -1692,7 +1708,7 @@
       <c r="A11" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="7" t="str">
+      <c r="B11" s="4" t="str">
         <f t="shared" si="0"/>
         <v>CONN</v>
       </c>
@@ -1730,10 +1746,10 @@
         <v>1</v>
       </c>
       <c r="M11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O11">
         <v>100</v>
@@ -1781,10 +1797,10 @@
         <v>4</v>
       </c>
       <c r="M12" t="s">
+        <v>67</v>
+      </c>
+      <c r="N12" t="s">
         <v>68</v>
-      </c>
-      <c r="N12" t="s">
-        <v>69</v>
       </c>
       <c r="O12">
         <v>125</v>
@@ -1794,7 +1810,7 @@
       <c r="A13" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="7" t="str">
+      <c r="B13" s="4" t="str">
         <f t="shared" si="0"/>
         <v>CONNECTOR</v>
       </c>
@@ -1832,10 +1848,10 @@
         <v>4</v>
       </c>
       <c r="M13" t="s">
+        <v>70</v>
+      </c>
+      <c r="N13" t="s">
         <v>71</v>
-      </c>
-      <c r="N13" t="s">
-        <v>72</v>
       </c>
       <c r="O13">
         <v>24</v>
@@ -1883,10 +1899,10 @@
         <v>4</v>
       </c>
       <c r="M14" t="s">
+        <v>72</v>
+      </c>
+      <c r="N14" t="s">
         <v>73</v>
-      </c>
-      <c r="N14" t="s">
-        <v>74</v>
       </c>
       <c r="O14">
         <v>100</v>
@@ -1896,7 +1912,7 @@
       <c r="A15" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="7" t="str">
+      <c r="B15" s="4" t="str">
         <f t="shared" si="0"/>
         <v>CONN</v>
       </c>
@@ -1937,7 +1953,7 @@
         <v>43</v>
       </c>
       <c r="N15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O15">
         <v>100</v>
@@ -1985,10 +2001,10 @@
         <v>1</v>
       </c>
       <c r="M16" t="s">
+        <v>83</v>
+      </c>
+      <c r="N16" t="s">
         <v>84</v>
-      </c>
-      <c r="N16" t="s">
-        <v>85</v>
       </c>
       <c r="O16">
         <v>100</v>
@@ -1998,7 +2014,7 @@
       <c r="A17" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="B17" s="7" t="str">
+      <c r="B17" s="4" t="str">
         <f t="shared" si="0"/>
         <v>TERMINATOR</v>
       </c>
@@ -2036,10 +2052,10 @@
         <v>1</v>
       </c>
       <c r="M17" t="s">
+        <v>90</v>
+      </c>
+      <c r="N17" t="s">
         <v>91</v>
-      </c>
-      <c r="N17" t="s">
-        <v>92</v>
       </c>
       <c r="O17">
         <v>10</v>
@@ -2087,10 +2103,10 @@
         <v>2</v>
       </c>
       <c r="M18" t="s">
+        <v>87</v>
+      </c>
+      <c r="N18" t="s">
         <v>88</v>
-      </c>
-      <c r="N18" t="s">
-        <v>89</v>
       </c>
       <c r="O18">
         <v>100</v>
@@ -2100,7 +2116,7 @@
       <c r="A19" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="7" t="str">
+      <c r="B19" s="4" t="str">
         <f t="shared" si="0"/>
         <v>HANGER</v>
       </c>
@@ -2138,10 +2154,10 @@
         <v>1</v>
       </c>
       <c r="M19" t="s">
+        <v>85</v>
+      </c>
+      <c r="N19" t="s">
         <v>86</v>
-      </c>
-      <c r="N19" t="s">
-        <v>87</v>
       </c>
       <c r="O19">
         <v>100</v>
@@ -2189,10 +2205,10 @@
         <v>1</v>
       </c>
       <c r="M20" t="s">
+        <v>81</v>
+      </c>
+      <c r="N20" t="s">
         <v>82</v>
-      </c>
-      <c r="N20" t="s">
-        <v>83</v>
       </c>
       <c r="O20">
         <v>100</v>
@@ -2202,7 +2218,7 @@
       <c r="A21" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="7" t="str">
+      <c r="B21" s="4" t="str">
         <f t="shared" si="0"/>
         <v>GRIP</v>
       </c>
@@ -2240,10 +2256,10 @@
         <v>2</v>
       </c>
       <c r="M21" t="s">
+        <v>76</v>
+      </c>
+      <c r="N21" t="s">
         <v>77</v>
-      </c>
-      <c r="N21" t="s">
-        <v>78</v>
       </c>
       <c r="O21">
         <v>100</v>
@@ -2251,7 +2267,7 @@
     </row>
     <row r="22" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A22" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B22" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2291,10 +2307,10 @@
         <v>1</v>
       </c>
       <c r="M22" t="s">
+        <v>74</v>
+      </c>
+      <c r="N22" t="s">
         <v>75</v>
-      </c>
-      <c r="N22" t="s">
-        <v>76</v>
       </c>
       <c r="O22">
         <v>25</v>
@@ -2302,9 +2318,9 @@
     </row>
     <row r="23" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A23" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="B23" s="7" t="str">
+        <v>92</v>
+      </c>
+      <c r="B23" s="4" t="str">
         <f t="shared" si="0"/>
         <v>CONDUIT</v>
       </c>
@@ -2342,10 +2358,10 @@
         <v>1</v>
       </c>
       <c r="M23" t="s">
+        <v>79</v>
+      </c>
+      <c r="N23" t="s">
         <v>80</v>
-      </c>
-      <c r="N23" t="s">
-        <v>81</v>
       </c>
       <c r="O23">
         <v>12</v>
@@ -2353,7 +2369,7 @@
     </row>
     <row r="24" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A24" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B24" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2393,10 +2409,10 @@
         <v>1</v>
       </c>
       <c r="M24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O24">
         <v>20</v>
@@ -2404,9 +2420,9 @@
     </row>
     <row r="25" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A25" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="B25" s="7" t="str">
+        <v>92</v>
+      </c>
+      <c r="B25" s="4" t="str">
         <f t="shared" si="0"/>
         <v>INSBSH</v>
       </c>
@@ -2444,7 +2460,7 @@
         <v>1</v>
       </c>
       <c r="M25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N25" t="s">
         <v>40</v>
@@ -2455,15 +2471,15 @@
     </row>
     <row r="26" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A26" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B26" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>INS</v>
+        <v>INSBSH</v>
       </c>
       <c r="C26" s="4" t="str">
         <f>_xlfn.CONCAT('Optimized Data'!$A26," ",'Optimized Data'!$B26)</f>
-        <v>BRDGPORT INS</v>
+        <v>BRDGPORT INSBSH</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>20</v>
@@ -2497,9 +2513,9 @@
     </row>
     <row r="27" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A27" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="B27" s="7" t="str">
+        <v>92</v>
+      </c>
+      <c r="B27" s="4" t="str">
         <f t="shared" si="0"/>
         <v>INSBSH</v>
       </c>
@@ -2539,7 +2555,7 @@
     </row>
     <row r="28" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A28" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B28" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2581,9 +2597,9 @@
     </row>
     <row r="29" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A29" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="B29" s="7" t="str">
+        <v>92</v>
+      </c>
+      <c r="B29" s="4" t="str">
         <f t="shared" si="0"/>
         <v>BSH</v>
       </c>
@@ -2623,7 +2639,7 @@
     </row>
     <row r="30" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A30" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B30" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2665,9 +2681,9 @@
     </row>
     <row r="31" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A31" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="B31" s="7" t="str">
+        <v>92</v>
+      </c>
+      <c r="B31" s="4" t="str">
         <f t="shared" si="0"/>
         <v>FLEX</v>
       </c>
@@ -2707,7 +2723,7 @@
     </row>
     <row r="32" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A32" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B32" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2749,9 +2765,9 @@
     </row>
     <row r="33" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A33" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="B33" s="7" t="str">
+        <v>92</v>
+      </c>
+      <c r="B33" s="4" t="str">
         <f t="shared" si="0"/>
         <v>COND</v>
       </c>
@@ -2791,10 +2807,10 @@
     </row>
     <row r="34" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A34" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B34" s="4" t="str">
-        <f t="shared" ref="B34:B65" si="1">TRIM(RIGHT(SUBSTITUTE(D34, " ", REPT(" ", LEN(D34))), LEN(D34)))</f>
+        <f t="shared" si="0"/>
         <v>COND</v>
       </c>
       <c r="C34" s="4" t="str">
@@ -2833,10 +2849,10 @@
     </row>
     <row r="35" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A35" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="B35" s="7" t="str">
-        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="B35" s="4" t="str">
+        <f t="shared" si="0"/>
         <v>EMT</v>
       </c>
       <c r="C35" s="7" t="str">
@@ -2875,10 +2891,10 @@
     </row>
     <row r="36" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B36" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>EMT</v>
       </c>
       <c r="C36" s="4" t="str">
@@ -2917,10 +2933,10 @@
     </row>
     <row r="37" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A37" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="B37" s="7" t="str">
-        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="B37" s="4" t="str">
+        <f t="shared" si="0"/>
         <v>EMT</v>
       </c>
       <c r="C37" s="7" t="str">
@@ -2959,10 +2975,10 @@
     </row>
     <row r="38" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A38" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B38" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>EMT</v>
       </c>
       <c r="C38" s="4" t="str">
@@ -3001,15 +3017,15 @@
     </row>
     <row r="39" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A39" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="B39" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>120V</v>
+        <v>56</v>
+      </c>
+      <c r="B39" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>CABLE</v>
       </c>
       <c r="C39" s="7" t="str">
         <f>_xlfn.CONCAT('Optimized Data'!$A39," ",'Optimized Data'!$B39)</f>
-        <v>CABLE 120V</v>
+        <v>CABLE CABLE</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>7</v>
@@ -3043,15 +3059,15 @@
     </row>
     <row r="40" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A40" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B40" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>120V</v>
+        <f t="shared" si="0"/>
+        <v>CABLE</v>
       </c>
       <c r="C40" s="4" t="str">
         <f>_xlfn.CONCAT('Optimized Data'!$A40," ",'Optimized Data'!$B40)</f>
-        <v>CABLE 120V</v>
+        <v>CABLE CABLE</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>19</v>

--- a/Projects from Mars Electric/Inventory Optimization Project - VMI Specialist.xlsx
+++ b/Projects from Mars Electric/Inventory Optimization Project - VMI Specialist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\c2c94\OneDrive\Desktop\Careers\Waddle Portfolio\data-portfolio\Projects from Mars Electric\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C1B3D4C-5F09-4447-B84E-291D806E8691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD7AF25E-F6B7-45B7-B71F-FAB3E8CCD0EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="4200" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1100" yWindow="1100" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Optimized Data" sheetId="4" r:id="rId1"/>
@@ -751,10 +751,12 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US"/>
-            <a:t>By implementing “optimized weekly” columns to define new inventory maxes, we reduced same-day deliveries by approximately 50%, saving over $1,500 annually in labor and fuel. Once the client fully adopts the new system, routine visits and same-day runs are projected to drop by 30%, driving over $10,000 in annual savings for Mars Electric—without compromising customer satisfaction.</a:t>
+            <a:t>By implementing “optimized weekly” columns to define new inventory maxes,</a:t>
           </a:r>
-        </a:p>
-        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" baseline="0"/>
+            <a:t> it instantly cut same-day deliveries by half, saving $1,500 +. With a full implementation, this new layout could save close to $10,000 annually. All in all, this new blueprint satifisfies the needs of the customer and Mars without compromise.</a:t>
+          </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="0"/>
         </a:p>
       </xdr:txBody>
@@ -1165,7 +1167,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F24B7BB-3E39-4FE8-B616-C239858AE6AC}">
   <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C8" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
